--- a/data/trans_orig/Q31A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Estudios-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>21.54952742773354</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>19.42168881790336</v>
+        <v>19.42168881790335</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>17.69427217652469</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.93219547887331</v>
+        <v>16.95184078631425</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.20507821210001</v>
+        <v>17.23530123813726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.60492898004021</v>
+        <v>16.59501666745694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.37279677903092</v>
+        <v>16.34648790497258</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>18.62657904790563</v>
+        <v>18.67276374167878</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>19.86252923291276</v>
+        <v>19.83539151517238</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>20.29852461840801</v>
+        <v>20.37960485734664</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>18.39879133021319</v>
+        <v>18.48335635425377</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.46313602862194</v>
+        <v>17.45057598221719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18.12631495990354</v>
+        <v>18.11910179232538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.71721806974665</v>
+        <v>17.69463065437352</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.9241231656244</v>
+        <v>16.94669024916426</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.39515883295191</v>
+        <v>17.3998127725416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.21430672441306</v>
+        <v>18.21126580032635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.29654660313595</v>
+        <v>17.24535797104165</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.96721934552343</v>
+        <v>16.92485413942914</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.92119653193296</v>
+        <v>19.88176711341257</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.95535437020733</v>
+        <v>21.95497844870629</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>24.13250564500238</v>
+        <v>23.82962070611394</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.80901732454303</v>
+        <v>20.94712855494615</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.94382681104695</v>
+        <v>17.94049719872001</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19.04862287660205</v>
+        <v>19.00139742223695</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18.993405272016</v>
+        <v>18.91395772471304</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>17.66891434128764</v>
+        <v>17.65755354518059</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>17.37590591306479</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>17.63602289124617</v>
+        <v>17.63602289124618</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.83078782089374</v>
+        <v>16.83150461221765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.01548245145287</v>
+        <v>17.01324988080902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.81925538584019</v>
+        <v>16.82274613039509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.93568454140894</v>
+        <v>16.94114502165187</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.68372234759409</v>
+        <v>17.68783410277937</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.9124171052429</v>
+        <v>17.92148257815723</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.86424413506169</v>
+        <v>17.86832167551752</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>18.30886896291025</v>
+        <v>18.30422630019648</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.15661707815675</v>
+        <v>17.15915894820955</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.3566687030972</v>
+        <v>17.36673591754104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.22738930987035</v>
+        <v>17.24282654038089</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.46867693646942</v>
+        <v>17.47611579712835</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.06537330260071</v>
+        <v>17.0673574199844</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.28592843767535</v>
+        <v>17.29568597352149</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.08799332401105</v>
+        <v>17.0998267764714</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.27042987295551</v>
+        <v>17.28146889198128</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.18881609700626</v>
+        <v>18.18085221431508</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.54514805154152</v>
+        <v>18.59125307410772</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>18.49019058734442</v>
+        <v>18.43310668811923</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>19.12225250808986</v>
+        <v>19.11720035682217</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.39264100661599</v>
+        <v>17.38314841175045</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.66025387702001</v>
+        <v>17.64733430573806</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.51641243289227</v>
+        <v>17.51965352267375</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.82277281478997</v>
+        <v>17.83749586066503</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>17.34778856871491</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17.668262664453</v>
+        <v>17.66826266445301</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>17.90154743468327</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.21667839620028</v>
+        <v>17.23745351692585</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.42813058753674</v>
+        <v>17.42161600057094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.09017914479771</v>
+        <v>17.08455212948592</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.33445777747818</v>
+        <v>17.33730534067997</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.64100344481045</v>
+        <v>17.63493366707297</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.92029120968333</v>
+        <v>17.88443315680508</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.87852318089721</v>
+        <v>17.86307054698856</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.83779561783077</v>
+        <v>17.88050103726511</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.44606282612228</v>
+        <v>17.4478958943057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.70534085180144</v>
+        <v>17.69659811311364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.49982549279581</v>
+        <v>17.50945625023094</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.66487860174471</v>
+        <v>17.65335112408048</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.64893486627087</v>
+        <v>17.68561964336732</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.02111184086126</v>
+        <v>18.01880982203382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.71234070668239</v>
+        <v>17.73003746233459</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.07667506764543</v>
+        <v>18.07999013662248</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.24247152096483</v>
+        <v>18.20452854748662</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.72727783223198</v>
+        <v>18.68117236889414</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>19.04615058414079</v>
+        <v>18.93493978946877</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.74533242825391</v>
+        <v>18.77249690594368</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.79063578843765</v>
+        <v>17.79148639971162</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.18999977544416</v>
+        <v>18.20321076518498</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18.07548014275747</v>
+        <v>18.11676530695247</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.2514910010972</v>
+        <v>18.23354821532327</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.99738413028112</v>
+        <v>17.00706830722363</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.20525172368303</v>
+        <v>17.20860451299653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.89822688284308</v>
+        <v>16.89713306522555</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.02447753909223</v>
+        <v>17.01213003369299</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.9558959599669</v>
+        <v>17.96163594754342</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.47890822631722</v>
+        <v>18.48204350943911</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>18.30376412014127</v>
+        <v>18.27652107951508</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.33100959731123</v>
+        <v>18.33149591646375</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.34422959991226</v>
+        <v>17.33793153318165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.67547818545169</v>
+        <v>17.68213587304482</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.45686724684288</v>
+        <v>17.46208678704326</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.52769005770734</v>
+        <v>17.51990879956498</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.18860889758249</v>
+        <v>17.18604502311667</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.50627770398868</v>
+        <v>17.50796813736255</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.13774140287675</v>
+        <v>17.13031734878869</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.3014008443896</v>
+        <v>17.28553718948694</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.358496126549</v>
+        <v>18.37166508184007</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.08864929541616</v>
+        <v>19.082613755688</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.93124061883529</v>
+        <v>18.9159272196908</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.9561130127214</v>
+        <v>18.91352626947897</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.52766453184896</v>
+        <v>17.53121100284934</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.9674841686149</v>
+        <v>17.96438223736027</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.7301309514657</v>
+        <v>17.73745117451606</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.79897576866056</v>
+        <v>17.80808097811442</v>
       </c>
     </row>
     <row r="16">
